--- a/api_admin/excels/Datos_ProblemasPropuestos.xlsx
+++ b/api_admin/excels/Datos_ProblemasPropuestos.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\Ejemplos_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE58A1B-03EF-4615-8438-5E34D9F8603E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2BF7B6-0650-47D6-9A1B-3C2BF9B39E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13095" yWindow="0" windowWidth="13410" windowHeight="14235" activeTab="2" xr2:uid="{F673EB76-743D-4B0D-96C3-C32891F51760}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26640" windowHeight="14370" activeTab="3" xr2:uid="{F673EB76-743D-4B0D-96C3-C32891F51760}"/>
   </bookViews>
   <sheets>
     <sheet name="2.1-2.5" sheetId="2" r:id="rId1"/>
     <sheet name="2.6" sheetId="1" r:id="rId2"/>
     <sheet name="2.7-2.9" sheetId="3" r:id="rId3"/>
+    <sheet name="2.15" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="24">
   <si>
     <t>2.1 Califiaciones (0-4) de cadenas hoteleras</t>
   </si>
@@ -67,12 +68,54 @@
   <si>
     <t>2.9 Tasas activas sobre micro-credito</t>
   </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Estado civil</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>Tarjeta</t>
+  </si>
+  <si>
+    <t>Préstamo</t>
+  </si>
+  <si>
+    <t>Ingresos</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Soltero</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Casado</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Divorciado</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +129,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -95,7 +151,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -103,11 +159,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -126,6 +197,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1961,7 +2038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3C332A-1D2B-47CA-B030-D7AEC0950EB1}">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
@@ -3054,4 +3131,598 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A374892-A80F-4AC9-A00B-72A1F8D14A71}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="8">
+        <v>22</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="8">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="8">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="8">
+        <v>30</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="8">
+        <v>20000</v>
+      </c>
+      <c r="G3" s="8">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="8">
+        <v>25</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="8">
+        <v>10000</v>
+      </c>
+      <c r="G4" s="8">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8">
+        <v>35</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="8">
+        <v>50000</v>
+      </c>
+      <c r="G5" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="8">
+        <v>40</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="8">
+        <v>100000</v>
+      </c>
+      <c r="G6" s="8">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="8">
+        <v>32</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="8">
+        <v>40000</v>
+      </c>
+      <c r="G7" s="8">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="8">
+        <v>29</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="8">
+        <v>5000</v>
+      </c>
+      <c r="G8" s="8">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8">
+        <v>31</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="8">
+        <v>60000</v>
+      </c>
+      <c r="G9" s="8">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="8">
+        <v>34</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="8">
+        <v>150000</v>
+      </c>
+      <c r="G10" s="8">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="8">
+        <v>30</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="8">
+        <v>200000</v>
+      </c>
+      <c r="G11" s="8">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="8">
+        <v>37</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="8">
+        <v>50000</v>
+      </c>
+      <c r="G12" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="8">
+        <v>25</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="8">
+        <v>5000</v>
+      </c>
+      <c r="G13" s="8">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="8">
+        <v>31</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="8">
+        <v>20000</v>
+      </c>
+      <c r="G14" s="8">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="8">
+        <v>25</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="8">
+        <v>10000</v>
+      </c>
+      <c r="G15" s="8">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="8">
+        <v>25</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="8">
+        <v>50000</v>
+      </c>
+      <c r="G16" s="8">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="8">
+        <v>31</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="8">
+        <v>50000</v>
+      </c>
+      <c r="G17" s="8">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="8">
+        <v>25</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="8">
+        <v>100000</v>
+      </c>
+      <c r="G18" s="8">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="8">
+        <v>30</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="8">
+        <v>40000</v>
+      </c>
+      <c r="G19" s="8">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="8">
+        <v>30</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="8">
+        <v>5000</v>
+      </c>
+      <c r="G20" s="8">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="8">
+        <v>31</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="8">
+        <v>40000</v>
+      </c>
+      <c r="G21" s="8">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="8">
+        <v>30</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="8">
+        <v>5000</v>
+      </c>
+      <c r="G22" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="8">
+        <v>25</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="8">
+        <v>40000</v>
+      </c>
+      <c r="G23" s="8">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="8">
+        <v>30</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="8">
+        <v>20000</v>
+      </c>
+      <c r="G24" s="8">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="8">
+        <v>30</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="8">
+        <v>10000</v>
+      </c>
+      <c r="G25" s="8">
+        <v>8000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>